--- a/SQL SERVER/Function Document/萬海 TIMS CbCR 單元功能測試反饋_0218帆軟only.xlsx
+++ b/SQL SERVER/Function Document/萬海 TIMS CbCR 單元功能測試反饋_0218帆軟only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmochou/workspace/CFC MODEL/SQL SERVER/Function Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E0BE3-B10D-8A4A-ADE4-1B2F2D850506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D02C8-D246-CC4D-92C1-F0920C26193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="-1980" windowWidth="38400" windowHeight="21100" tabRatio="751" xr2:uid="{318A3ADF-BB52-4A80-B860-65E9C53CC0B3}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
